--- a/Fall-Semester/ANLT600/Test4/Practice test_health_data_Solution.xlsx
+++ b/Fall-Semester/ANLT600/Test4/Practice test_health_data_Solution.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="935" documentId="11_584E7FBFF7993E895E4D8452258401311C2E04FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87DEE8F6-9945-4E74-98E9-04F9D98F6D93}"/>
+  <xr:revisionPtr revIDLastSave="1359" documentId="11_584E7FBFF7993E895E4D8452258401311C2E04FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{364B11E5-FBDD-9E4E-B8A0-48ADF02D82E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1140" windowWidth="27520" windowHeight="17480" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,23 +16,23 @@
     <sheet name="Q5" sheetId="6" r:id="rId6"/>
     <sheet name="Q6" sheetId="7" r:id="rId7"/>
     <sheet name="Q7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet3!$A$1:$B$41</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Q3'!$K$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Q3'!$K$2:$K$24</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Q5'!$Q$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Q5'!$Q$2:$Q$24</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Q5'!$R$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Q5'!$R$2:$R$24</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Q3'!$L$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Q3'!$L$2:$L$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Q3'!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Q3'!$K$2:$K$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Q3'!$L$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Q3'!$L$2:$L$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Q5'!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Q5'!$A$2:$A$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Q5'!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Q5'!$A$2:$A$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Q5'!$Q$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Q5'!$Q$2:$Q$24</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Q5'!$R$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Q5'!$R$2:$R$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="105">
   <si>
     <t>Gender</t>
   </si>
@@ -362,6 +362,12 @@
   <si>
     <t>Code for Gender</t>
   </si>
+  <si>
+    <t>Current Smoking Status</t>
+  </si>
+  <si>
+    <t>Physical Activity</t>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,16 +648,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,6 +1466,480 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CB0-E048-9AC2-CD61C7C05146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$5:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CB0-E048-9AC2-CD61C7C05146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="138822719"/>
+        <c:axId val="184678063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="138822719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184678063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184678063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138822719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -6080,7 +6563,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6118,7 +6601,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{F1503039-D410-4FBF-B7AE-379B1405254B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>CHOL</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6205,12 +6688,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6248,7 +6731,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5DA42089-1318-4E34-8241-66E766397397}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Male</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6261,7 +6744,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D2AD2BF6-9E5F-45A6-95FE-EBCBE3931545}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Female</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6328,6 +6811,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7804,6 +8327,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
@@ -12488,8 +13514,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3038475" y="6186487"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="3394075" y="6208712"/>
+              <a:ext cx="5191125" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12508,7 +13534,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-CA" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -12612,8 +13638,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4467225" y="309562"/>
-              <a:ext cx="4572000" cy="2752725"/>
+              <a:off x="5026025" y="306387"/>
+              <a:ext cx="5016500" cy="2759075"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12632,7 +13658,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-CA" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -12690,8 +13716,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12759198" y="4528369"/>
-              <a:ext cx="4551106" cy="2721078"/>
+              <a:off x="14206998" y="4537894"/>
+              <a:ext cx="5122606" cy="2721078"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12710,7 +13736,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-CA" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -12865,6 +13891,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A485AB1-1F22-D457-C608-BE60E04907EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13162,25 +14229,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -13218,7 +14285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -13256,7 +14323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13294,7 +14361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -13332,7 +14399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -13370,7 +14437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -13408,7 +14475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -13446,7 +14513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -13484,7 +14551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -13522,7 +14589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -13560,7 +14627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -13598,7 +14665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -13636,7 +14703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -13674,7 +14741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -13712,7 +14779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -13750,7 +14817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -13788,7 +14855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -13826,7 +14893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -13864,7 +14931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -13902,7 +14969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -13940,7 +15007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -13978,7 +15045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -14016,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14054,7 +15121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -14092,7 +15159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -14130,7 +15197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -14168,7 +15235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -14206,7 +15273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -14244,7 +15311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -14282,7 +15349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -14320,7 +15387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -14358,7 +15425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -14396,7 +15463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -14434,7 +15501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -14472,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -14510,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -14548,7 +15615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -14586,7 +15653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -14624,7 +15691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -14662,7 +15729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -14700,7 +15767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -14738,7 +15805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -14752,7 +15819,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -14766,7 +15833,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="8" t="s">
         <v>25</v>
@@ -14782,7 +15849,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="8" t="s">
         <v>26</v>
@@ -14798,7 +15865,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="8" t="s">
         <v>27</v>
@@ -14814,7 +15881,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="8" t="s">
         <v>28</v>
@@ -14830,7 +15897,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="8" t="s">
         <v>29</v>
@@ -14846,7 +15913,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="8" t="s">
         <v>30</v>
@@ -14862,7 +15929,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
         <v>31</v>
@@ -14883,28 +15950,1290 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF8910-525C-C449-9C45-3D5E3C775E63}">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS($A$2:$A$41,D5,B2:B41,$E$4)</f>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS($A$2:$A$41,D5,B2:B41,$F$4)</f>
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <f>SUM(E5:F5)</f>
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="47">
+        <f>E5/$E$2</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M5" s="47">
+        <f>F5/$E$2</f>
+        <v>0.35</v>
+      </c>
+      <c r="N5" s="52">
+        <f>SUM(L5:M5)</f>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS($A$2:$A$41,D6,B2:B41,$E$4)</f>
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS($A$2:$A$41,D6,B2:B41,$F$4)</f>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>SUM(E6:F6)</f>
+        <v>17</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="47">
+        <f>E6/$E$2</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M6" s="47">
+        <f>F6/$E$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="52">
+        <f>SUM(L6:M6)</f>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E5:E6)</f>
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F5:F6)</f>
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G5:G6)</f>
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="52">
+        <f>SUM(L5:L6)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="52">
+        <f>SUM(M5:M6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="52">
+        <f>SUM(N5:N6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F5D9B-E255-4841-8C68-94477D55A4D5}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="N2" s="3">
+        <v>58</v>
+      </c>
+      <c r="O2" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="N3" s="3">
+        <v>45</v>
+      </c>
+      <c r="O3" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>65</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="N4" s="3">
+        <v>68</v>
+      </c>
+      <c r="O4" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="N5" s="3">
+        <v>56</v>
+      </c>
+      <c r="O5" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>66</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="48">
+        <v>50.043478260869563</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="48">
+        <v>49.588235294117645</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="N6" s="3">
+        <v>54</v>
+      </c>
+      <c r="O6" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>23</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="48">
+        <v>2.4361232898354941</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="48">
+        <v>4.2279347826038611</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="N7" s="3">
+        <v>47</v>
+      </c>
+      <c r="O7" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>73</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="48">
+        <v>51</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="48">
+        <v>48</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="N8" s="3">
+        <v>51</v>
+      </c>
+      <c r="O8" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>35</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="48">
+        <v>68</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="48">
+        <v>66</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="N9" s="3">
+        <v>29</v>
+      </c>
+      <c r="O9" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>77</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="48">
+        <v>11.683236868069351</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="48">
+        <v>17.432221686898561</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="N10" s="3">
+        <v>68</v>
+      </c>
+      <c r="O10" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>68</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="48">
+        <v>136.49802371541492</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="48">
+        <v>303.88235294117658</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="N11" s="3">
+        <v>48</v>
+      </c>
+      <c r="O11" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>34</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="48">
+        <v>-0.53089802739727654</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="48">
+        <v>-1.0590241175646495</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="N12" s="3">
+        <v>44</v>
+      </c>
+      <c r="O12" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>46</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="48">
+        <v>0.14570108588586975</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="48">
+        <v>-6.4178659291512841E-2</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="N13" s="3">
+        <v>32</v>
+      </c>
+      <c r="O13" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="48">
+        <v>44</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="48">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="N14" s="3">
+        <v>52</v>
+      </c>
+      <c r="O14" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>48</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="48">
+        <v>29</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="48">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="N15" s="3">
+        <v>62</v>
+      </c>
+      <c r="O15" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>66</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="48">
+        <v>73</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="48">
+        <v>77</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="N16" s="3">
+        <v>42</v>
+      </c>
+      <c r="O16" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>33</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="48">
+        <v>1151</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="48">
+        <v>843</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="N17" s="3">
+        <v>55</v>
+      </c>
+      <c r="O17" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>53</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="49">
+        <v>23</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="49">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="N18" s="3">
+        <v>36</v>
+      </c>
+      <c r="O18" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="53"/>
+      <c r="N19" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="53"/>
+      <c r="N20" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <v>68</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="53"/>
+      <c r="N21" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>56</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="53"/>
+      <c r="N22" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3">
+        <v>54</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="53"/>
+      <c r="N23" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>47</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="53"/>
+      <c r="N24" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B41" xr:uid="{221F5D9B-E255-4841-8C68-94477D55A4D5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
+      <sortCondition ref="A1:A41"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0CF0FB-819B-415B-A1DE-BF7892EAFAD8}">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="68" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14939,7 +17268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -14983,7 +17312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -15022,7 +17351,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -15066,36 +17395,36 @@
         <v>34</v>
       </c>
       <c r="P4" s="15"/>
-      <c r="Z4" s="47" t="s">
+      <c r="Z4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47" t="s">
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47" t="s">
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47" t="s">
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47" t="s">
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="47"/>
-    </row>
-    <row r="5" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AM4" s="34"/>
+    </row>
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -15141,22 +17470,8 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="P5" s="15"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-    </row>
-    <row r="6" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -15202,50 +17517,50 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="P6" s="15"/>
-      <c r="Z6" s="48" t="s">
+      <c r="Z6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="48">
+      <c r="AA6" s="43">
         <v>49.85</v>
       </c>
-      <c r="AB6" s="48" t="s">
+      <c r="AB6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AC6" s="48">
+      <c r="AC6" s="43">
         <v>68.335000000000008</v>
       </c>
-      <c r="AD6" s="48" t="s">
+      <c r="AD6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AE6" s="48">
+      <c r="AE6" s="43">
         <v>172.5500000000001</v>
       </c>
-      <c r="AF6" s="48" t="s">
+      <c r="AF6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" s="48">
+      <c r="AG6" s="43">
         <v>69.400000000000006</v>
       </c>
-      <c r="AH6" s="48" t="s">
+      <c r="AH6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AI6" s="48">
+      <c r="AI6" s="43">
         <v>99.275000000000006</v>
       </c>
-      <c r="AJ6" s="48" t="s">
+      <c r="AJ6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AK6" s="48">
+      <c r="AK6" s="43">
         <v>395.22500000000002</v>
       </c>
-      <c r="AL6" s="48" t="s">
+      <c r="AL6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AM6" s="48">
+      <c r="AM6" s="43">
         <v>7.3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -15291,50 +17606,50 @@
         <v>1</v>
       </c>
       <c r="P7" s="15"/>
-      <c r="Z7" s="45" t="s">
+      <c r="Z7" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="45">
+      <c r="AA7">
         <v>2.2456653402750875</v>
       </c>
-      <c r="AB7" s="45" t="s">
+      <c r="AB7" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="45">
+      <c r="AC7">
         <v>0.47743371133378165</v>
       </c>
-      <c r="AD7" s="45" t="s">
+      <c r="AD7" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7">
         <v>4.1626898971081641</v>
       </c>
-      <c r="AF7" s="45" t="s">
+      <c r="AF7" t="s">
         <v>46</v>
       </c>
-      <c r="AG7" s="45">
+      <c r="AG7">
         <v>1.7862724402423149</v>
       </c>
-      <c r="AH7" s="45" t="s">
+      <c r="AH7" t="s">
         <v>46</v>
       </c>
-      <c r="AI7" s="45">
+      <c r="AI7">
         <v>0.36159812655516493</v>
       </c>
-      <c r="AJ7" s="45" t="s">
+      <c r="AJ7" t="s">
         <v>46</v>
       </c>
-      <c r="AK7" s="45">
+      <c r="AK7">
         <v>46.234359621556173</v>
       </c>
-      <c r="AL7" s="45" t="s">
+      <c r="AL7" t="s">
         <v>46</v>
       </c>
-      <c r="AM7" s="45">
+      <c r="AM7">
         <v>0.68049755552604529</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -15372,50 +17687,50 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Z8" s="45" t="s">
+      <c r="Z8" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="AA8">
         <v>49.5</v>
       </c>
-      <c r="AB8" s="45" t="s">
+      <c r="AB8" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="45">
+      <c r="AC8">
         <v>68.3</v>
       </c>
-      <c r="AD8" s="45" t="s">
+      <c r="AD8" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="45">
+      <c r="AE8">
         <v>169.95</v>
       </c>
-      <c r="AF8" s="45" t="s">
+      <c r="AF8" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="45">
+      <c r="AG8">
         <v>66</v>
       </c>
-      <c r="AH8" s="45" t="s">
+      <c r="AH8" t="s">
         <v>47</v>
       </c>
-      <c r="AI8" s="45">
+      <c r="AI8">
         <v>99</v>
       </c>
-      <c r="AJ8" s="45" t="s">
+      <c r="AJ8" t="s">
         <v>47</v>
       </c>
-      <c r="AK8" s="45">
+      <c r="AK8">
         <v>282.5</v>
       </c>
-      <c r="AL8" s="45" t="s">
+      <c r="AL8" t="s">
         <v>47</v>
       </c>
-      <c r="AM8" s="45">
+      <c r="AM8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -15453,50 +17768,50 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
-      <c r="Z9" s="45" t="s">
+      <c r="Z9" t="s">
         <v>48</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9">
         <v>68</v>
       </c>
-      <c r="AB9" s="45" t="s">
+      <c r="AB9" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" s="45">
+      <c r="AC9">
         <v>68.3</v>
       </c>
-      <c r="AD9" s="45" t="s">
+      <c r="AD9" t="s">
         <v>48</v>
       </c>
-      <c r="AE9" s="45" t="e">
+      <c r="AE9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF9" s="45" t="s">
+      <c r="AF9" t="s">
         <v>48</v>
       </c>
-      <c r="AG9" s="45">
+      <c r="AG9">
         <v>64</v>
       </c>
-      <c r="AH9" s="45" t="s">
+      <c r="AH9" t="s">
         <v>48</v>
       </c>
-      <c r="AI9" s="45">
+      <c r="AI9">
         <v>101</v>
       </c>
-      <c r="AJ9" s="45" t="s">
+      <c r="AJ9" t="s">
         <v>48</v>
       </c>
-      <c r="AK9" s="45">
+      <c r="AK9">
         <v>265</v>
       </c>
-      <c r="AL9" s="45" t="s">
+      <c r="AL9" t="s">
         <v>48</v>
       </c>
-      <c r="AM9" s="45">
+      <c r="AM9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -15540,50 +17855,50 @@
         <v>34</v>
       </c>
       <c r="P10" s="15"/>
-      <c r="Z10" s="48" t="s">
+      <c r="Z10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" s="48">
+      <c r="AA10" s="43">
         <v>14.202834675532662</v>
       </c>
-      <c r="AB10" s="48" t="s">
+      <c r="AB10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="43">
         <v>3.0195559191241932</v>
       </c>
-      <c r="AD10" s="48" t="s">
+      <c r="AD10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AE10" s="48">
+      <c r="AE10" s="43">
         <v>26.327162535667515</v>
       </c>
-      <c r="AF10" s="48" t="s">
+      <c r="AF10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="48">
+      <c r="AG10" s="43">
         <v>11.297378865505458</v>
       </c>
-      <c r="AH10" s="48" t="s">
+      <c r="AH10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AI10" s="48">
+      <c r="AI10" s="43">
         <v>2.2869473551282731</v>
       </c>
-      <c r="AJ10" s="48" t="s">
+      <c r="AJ10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AK10" s="48">
+      <c r="AK10" s="43">
         <v>292.41176512687611</v>
       </c>
-      <c r="AL10" s="48" t="s">
+      <c r="AL10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="48">
+      <c r="AM10" s="43">
         <v>4.3038444352784087</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -15629,50 +17944,50 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Z11" s="45" t="s">
+      <c r="Z11" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11">
         <v>201.72051282051297</v>
       </c>
-      <c r="AB11" s="45" t="s">
+      <c r="AB11" t="s">
         <v>50</v>
       </c>
-      <c r="AC11" s="45">
+      <c r="AC11">
         <v>9.1177179487179512</v>
       </c>
-      <c r="AD11" s="45" t="s">
+      <c r="AD11" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="45">
+      <c r="AE11">
         <v>693.11948717945518</v>
       </c>
-      <c r="AF11" s="45" t="s">
+      <c r="AF11" t="s">
         <v>50</v>
       </c>
-      <c r="AG11" s="45">
+      <c r="AG11">
         <v>127.63076923076937</v>
       </c>
-      <c r="AH11" s="45" t="s">
+      <c r="AH11" t="s">
         <v>50</v>
       </c>
-      <c r="AI11" s="45">
+      <c r="AI11">
         <v>5.2301282051282039</v>
       </c>
-      <c r="AJ11" s="45" t="s">
+      <c r="AJ11" t="s">
         <v>50</v>
       </c>
-      <c r="AK11" s="45">
+      <c r="AK11">
         <v>85504.64038461537</v>
       </c>
-      <c r="AL11" s="45" t="s">
+      <c r="AL11" t="s">
         <v>50</v>
       </c>
-      <c r="AM11" s="45">
+      <c r="AM11">
         <v>18.523076923076925</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -15718,50 +18033,50 @@
         <v>0.3</v>
       </c>
       <c r="P12" s="15"/>
-      <c r="Z12" s="45" t="s">
+      <c r="Z12" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="45">
+      <c r="AA12">
         <v>-0.62992781792904484</v>
       </c>
-      <c r="AB12" s="45" t="s">
+      <c r="AB12" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="45">
+      <c r="AC12">
         <v>0.50555863073135576</v>
       </c>
-      <c r="AD12" s="45" t="s">
+      <c r="AD12" t="s">
         <v>51</v>
       </c>
-      <c r="AE12" s="45">
+      <c r="AE12">
         <v>-0.16641631736650631</v>
       </c>
-      <c r="AF12" s="45" t="s">
+      <c r="AF12" t="s">
         <v>51</v>
       </c>
-      <c r="AG12" s="45">
+      <c r="AG12">
         <v>-0.6395175820074841</v>
       </c>
-      <c r="AH12" s="45" t="s">
+      <c r="AH12" t="s">
         <v>51</v>
       </c>
-      <c r="AI12" s="45">
+      <c r="AI12">
         <v>-1.1872729824270762</v>
       </c>
-      <c r="AJ12" s="45" t="s">
+      <c r="AJ12" t="s">
         <v>51</v>
       </c>
-      <c r="AK12" s="45">
+      <c r="AK12">
         <v>0.47143125149810761</v>
       </c>
-      <c r="AL12" s="45" t="s">
+      <c r="AL12" t="s">
         <v>51</v>
       </c>
-      <c r="AM12" s="45">
+      <c r="AM12">
         <v>-1.1479706940548411</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -15807,50 +18122,50 @@
         <v>0.35</v>
       </c>
       <c r="P13" s="15"/>
-      <c r="Z13" s="45" t="s">
+      <c r="Z13" t="s">
         <v>52</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AA13">
         <v>-2.079796525781499E-2</v>
       </c>
-      <c r="AB13" s="45" t="s">
+      <c r="AB13" t="s">
         <v>52</v>
       </c>
-      <c r="AC13" s="45">
+      <c r="AC13">
         <v>4.5652331555308429E-2</v>
       </c>
-      <c r="AD13" s="45" t="s">
+      <c r="AD13" t="s">
         <v>52</v>
       </c>
-      <c r="AE13" s="45">
+      <c r="AE13">
         <v>0.37037477969411386</v>
       </c>
-      <c r="AF13" s="45" t="s">
+      <c r="AF13" t="s">
         <v>52</v>
       </c>
-      <c r="AG13" s="45">
+      <c r="AG13">
         <v>0.68002365789764041</v>
       </c>
-      <c r="AH13" s="45" t="s">
+      <c r="AH13" t="s">
         <v>52</v>
       </c>
-      <c r="AI13" s="45">
+      <c r="AI13">
         <v>9.001061157007044E-2</v>
       </c>
-      <c r="AJ13" s="45" t="s">
+      <c r="AJ13" t="s">
         <v>52</v>
       </c>
-      <c r="AK13" s="45">
+      <c r="AK13">
         <v>0.96657635197114089</v>
       </c>
-      <c r="AL13" s="45" t="s">
+      <c r="AL13" t="s">
         <v>52</v>
       </c>
-      <c r="AM13" s="45">
+      <c r="AM13">
         <v>-0.13923148100207461</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -15896,50 +18211,50 @@
         <v>0.125</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Z14" s="45" t="s">
+      <c r="Z14" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AA14">
         <v>57</v>
       </c>
-      <c r="AB14" s="45" t="s">
+      <c r="AB14" t="s">
         <v>53</v>
       </c>
-      <c r="AC14" s="45">
+      <c r="AC14">
         <v>14.900000000000006</v>
       </c>
-      <c r="AD14" s="45" t="s">
+      <c r="AD14" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AE14">
         <v>117.6</v>
       </c>
-      <c r="AF14" s="45" t="s">
+      <c r="AF14" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="45">
+      <c r="AG14">
         <v>40</v>
       </c>
-      <c r="AH14" s="45" t="s">
+      <c r="AH14" t="s">
         <v>53</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AI14">
         <v>7</v>
       </c>
-      <c r="AJ14" s="45" t="s">
+      <c r="AJ14" t="s">
         <v>53</v>
       </c>
-      <c r="AK14" s="45">
+      <c r="AK14">
         <v>1221</v>
       </c>
-      <c r="AL14" s="45" t="s">
+      <c r="AL14" t="s">
         <v>53</v>
       </c>
-      <c r="AM14" s="45">
+      <c r="AM14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -15985,50 +18300,50 @@
         <v>1</v>
       </c>
       <c r="P15" s="15"/>
-      <c r="Z15" s="48" t="s">
+      <c r="Z15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AA15" s="48">
+      <c r="AA15" s="43">
         <v>20</v>
       </c>
-      <c r="AB15" s="48" t="s">
+      <c r="AB15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AC15" s="48">
+      <c r="AC15" s="43">
         <v>61.3</v>
       </c>
-      <c r="AD15" s="48" t="s">
+      <c r="AD15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AE15" s="48">
+      <c r="AE15" s="43">
         <v>119.5</v>
       </c>
-      <c r="AF15" s="48" t="s">
+      <c r="AF15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AG15" s="48">
+      <c r="AG15" s="43">
         <v>56</v>
       </c>
-      <c r="AH15" s="48" t="s">
+      <c r="AH15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AI15" s="48">
+      <c r="AI15" s="43">
         <v>96</v>
       </c>
-      <c r="AJ15" s="48" t="s">
+      <c r="AJ15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AK15" s="48">
+      <c r="AK15" s="43">
         <v>31</v>
       </c>
-      <c r="AL15" s="48" t="s">
+      <c r="AL15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AM15" s="48">
+      <c r="AM15" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -16066,50 +18381,50 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
-      <c r="Z16" s="48" t="s">
+      <c r="Z16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AA16" s="48">
+      <c r="AA16" s="43">
         <v>77</v>
       </c>
-      <c r="AB16" s="48" t="s">
+      <c r="AB16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AC16" s="48">
+      <c r="AC16" s="43">
         <v>76.2</v>
       </c>
-      <c r="AD16" s="48" t="s">
+      <c r="AD16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AE16" s="48">
+      <c r="AE16" s="43">
         <v>237.1</v>
       </c>
-      <c r="AF16" s="48" t="s">
+      <c r="AF16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AG16" s="48">
+      <c r="AG16" s="43">
         <v>96</v>
       </c>
-      <c r="AH16" s="48" t="s">
+      <c r="AH16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AI16" s="48">
+      <c r="AI16" s="43">
         <v>103</v>
       </c>
-      <c r="AJ16" s="48" t="s">
+      <c r="AJ16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AK16" s="48">
+      <c r="AK16" s="43">
         <v>1252</v>
       </c>
-      <c r="AL16" s="48" t="s">
+      <c r="AL16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AM16" s="48">
+      <c r="AM16" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -16147,50 +18462,50 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
-      <c r="Z17" s="45" t="s">
+      <c r="Z17" t="s">
         <v>56</v>
       </c>
-      <c r="AA17" s="45">
+      <c r="AA17">
         <v>1994</v>
       </c>
-      <c r="AB17" s="45" t="s">
+      <c r="AB17" t="s">
         <v>56</v>
       </c>
-      <c r="AC17" s="45">
+      <c r="AC17">
         <v>2733.4</v>
       </c>
-      <c r="AD17" s="45" t="s">
+      <c r="AD17" t="s">
         <v>56</v>
       </c>
-      <c r="AE17" s="45">
+      <c r="AE17">
         <v>6902.0000000000036</v>
       </c>
-      <c r="AF17" s="45" t="s">
+      <c r="AF17" t="s">
         <v>56</v>
       </c>
-      <c r="AG17" s="45">
+      <c r="AG17">
         <v>2776</v>
       </c>
-      <c r="AH17" s="45" t="s">
+      <c r="AH17" t="s">
         <v>56</v>
       </c>
-      <c r="AI17" s="45">
+      <c r="AI17">
         <v>3971</v>
       </c>
-      <c r="AJ17" s="45" t="s">
+      <c r="AJ17" t="s">
         <v>56</v>
       </c>
-      <c r="AK17" s="45">
+      <c r="AK17">
         <v>15809</v>
       </c>
-      <c r="AL17" s="45" t="s">
+      <c r="AL17" t="s">
         <v>56</v>
       </c>
-      <c r="AM17" s="45">
+      <c r="AM17">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -16234,50 +18549,50 @@
         <v>34</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="Z18" s="46" t="s">
+      <c r="Z18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AA18" s="46">
+      <c r="AA18" s="33">
         <v>40</v>
       </c>
-      <c r="AB18" s="46" t="s">
+      <c r="AB18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AC18" s="46">
+      <c r="AC18" s="33">
         <v>40</v>
       </c>
-      <c r="AD18" s="46" t="s">
+      <c r="AD18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE18" s="46">
+      <c r="AE18" s="33">
         <v>40</v>
       </c>
-      <c r="AF18" s="46" t="s">
+      <c r="AF18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AG18" s="46">
+      <c r="AG18" s="33">
         <v>40</v>
       </c>
-      <c r="AH18" s="46" t="s">
+      <c r="AH18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="46">
+      <c r="AI18" s="33">
         <v>40</v>
       </c>
-      <c r="AJ18" s="46" t="s">
+      <c r="AJ18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AK18" s="46">
+      <c r="AK18" s="33">
         <v>40</v>
       </c>
-      <c r="AL18" s="46" t="s">
+      <c r="AL18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AM18" s="46">
+      <c r="AM18" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -16324,7 +18639,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -16371,7 +18686,7 @@
       </c>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -16418,7 +18733,7 @@
       </c>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -16454,7 +18769,7 @@
       </c>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -16489,7 +18804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -16533,7 +18848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -16579,7 +18894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -16625,7 +18940,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
@@ -16671,7 +18986,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -16717,7 +19032,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -16763,7 +19078,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -16809,7 +19124,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -16855,7 +19170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -16890,7 +19205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -16925,7 +19240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -16969,7 +19284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -17015,7 +19330,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -17061,7 +19376,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -17096,7 +19411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
@@ -17131,7 +19446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
@@ -17166,7 +19481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
@@ -17201,7 +19516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
@@ -17236,7 +19551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -17249,7 +19564,7 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -17262,7 +19577,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>25</v>
       </c>
@@ -17277,7 +19592,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>26</v>
       </c>
@@ -17292,7 +19607,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>27</v>
       </c>
@@ -17307,7 +19622,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>28</v>
       </c>
@@ -17322,7 +19637,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>29</v>
       </c>
@@ -17337,7 +19652,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>30</v>
       </c>
@@ -17352,7 +19667,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>31</v>
       </c>
@@ -17377,23 +19692,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4B1187-B21B-46E2-9FB5-74924381C078}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17401,7 +19716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -17409,7 +19724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -17432,7 +19747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -17459,7 +19774,7 @@
         <v>0.39130434782608697</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -17498,7 +19813,7 @@
         <v>0.60869565217391308</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -17536,7 +19851,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -17581,7 +19896,7 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -17626,7 +19941,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -17638,7 +19953,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -17646,7 +19961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -17654,7 +19969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -17662,7 +19977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -17670,7 +19985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -17678,7 +19993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -17686,7 +20001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -17694,7 +20009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -17702,7 +20017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -17710,7 +20025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -17718,7 +20033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -17726,7 +20041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -17734,7 +20049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -17742,7 +20057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -17750,7 +20065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -17758,7 +20073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -17766,7 +20081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -17774,7 +20089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
@@ -17782,7 +20097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -17790,7 +20105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -17798,7 +20113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
@@ -17806,7 +20121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -17814,7 +20129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -17822,7 +20137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -17830,7 +20145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -17838,7 +20153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -17846,7 +20161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -17854,7 +20169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -17862,7 +20177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
@@ -17870,7 +20185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
@@ -17878,7 +20193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
@@ -17886,7 +20201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
@@ -17894,51 +20209,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>31</v>
       </c>
@@ -17954,36 +20269,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68D6C8-3878-4EBC-AFFA-E6B5D268C6EC}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -17997,7 +20312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -18017,7 +20332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -18035,7 +20350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -18059,7 +20374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -18085,7 +20400,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -18111,7 +20426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -18131,7 +20446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -18145,7 +20460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -18159,7 +20474,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -18173,21 +20488,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>34</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="34"/>
       <c r="K12" s="3">
         <v>44</v>
       </c>
@@ -18195,17 +20510,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>46</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
       <c r="K13" s="3">
         <v>32</v>
       </c>
@@ -18213,23 +20524,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="46">
         <v>50.043478260869563</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="46">
         <v>49.588235294117645</v>
       </c>
       <c r="K14" s="3">
@@ -18239,23 +20550,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>48</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15">
         <v>2.4361232898354941</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15">
         <v>4.2279347826038611</v>
       </c>
       <c r="K15" s="3">
@@ -18265,23 +20576,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>66</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16">
         <v>51</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16">
         <v>48</v>
       </c>
       <c r="K16" s="3">
@@ -18291,23 +20602,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>33</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17">
         <v>68</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17">
         <v>66</v>
       </c>
       <c r="K17" s="3">
@@ -18317,23 +20628,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>53</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="46">
         <v>11.683236868069351</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="46">
         <v>17.432221686898561</v>
       </c>
       <c r="K18" s="3">
@@ -18343,23 +20654,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3">
         <v>58</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19">
         <v>136.49802371541492</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19">
         <v>303.88235294117658</v>
       </c>
       <c r="K19" s="3">
@@ -18367,23 +20678,23 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="3">
         <v>45</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20">
         <v>-0.53089802739727654</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20">
         <v>-1.0590241175646495</v>
       </c>
       <c r="K20" s="3">
@@ -18391,23 +20702,23 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="3">
         <v>68</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21">
         <v>0.14570108588586975</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21">
         <v>-6.4178659291512841E-2</v>
       </c>
       <c r="K21" s="3">
@@ -18415,23 +20726,23 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="3">
         <v>56</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22">
         <v>44</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22">
         <v>57</v>
       </c>
       <c r="K22" s="3">
@@ -18439,23 +20750,23 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3">
         <v>54</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="46">
         <v>29</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="46">
         <v>20</v>
       </c>
       <c r="K23" s="3">
@@ -18463,23 +20774,23 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3">
         <v>47</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="46">
         <v>73</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="46">
         <v>77</v>
       </c>
       <c r="K24" s="3">
@@ -18487,51 +20798,51 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="3">
         <v>51</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25">
         <v>1151</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25">
         <v>843</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="3">
         <v>29</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="33">
         <v>23</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="33">
         <v>17</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
@@ -18541,7 +20852,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -18551,7 +20862,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -18561,7 +20872,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -18571,7 +20882,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -18581,7 +20892,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -18591,7 +20902,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -18601,7 +20912,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -18611,7 +20922,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
@@ -18621,7 +20932,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -18631,7 +20942,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -18641,7 +20952,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -18651,7 +20962,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
@@ -18661,7 +20972,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
@@ -18671,7 +20982,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
@@ -18681,55 +20992,55 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="K50" s="8"/>
@@ -18753,18 +21064,18 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -18775,7 +21086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -18787,7 +21098,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -18811,7 +21122,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -18835,7 +21146,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -18871,7 +21182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -18913,7 +21224,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -18955,7 +21266,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -18997,7 +21308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -19009,7 +21320,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -19021,7 +21332,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -19033,7 +21344,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -19045,7 +21356,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -19057,7 +21368,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -19069,7 +21380,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -19081,7 +21392,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -19093,7 +21404,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -19105,7 +21416,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -19117,7 +21428,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -19129,7 +21440,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -19141,7 +21452,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -19153,7 +21464,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -19165,7 +21476,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -19177,7 +21488,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -19189,7 +21500,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -19201,7 +21512,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -19213,7 +21524,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -19225,7 +21536,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -19237,7 +21548,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -19249,7 +21560,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -19261,7 +21572,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -19273,7 +21584,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
@@ -19285,7 +21596,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
@@ -19297,7 +21608,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -19309,7 +21620,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
@@ -19321,7 +21632,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -19333,7 +21644,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -19345,7 +21656,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -19357,7 +21668,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -19369,7 +21680,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -19381,7 +21692,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -19393,39 +21704,39 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
     </row>
@@ -19443,16 +21754,16 @@
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -19466,7 +21777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>78</v>
       </c>
@@ -19488,7 +21799,7 @@
       </c>
       <c r="U2" s="36"/>
     </row>
-    <row r="3" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>121</v>
       </c>
@@ -19510,7 +21821,7 @@
       </c>
       <c r="U3" s="37"/>
     </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>230</v>
       </c>
@@ -19532,7 +21843,7 @@
       </c>
       <c r="W4" s="34"/>
     </row>
-    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>288</v>
       </c>
@@ -19552,7 +21863,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>339</v>
       </c>
@@ -19584,7 +21895,7 @@
         <v>370.76470588235293</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>522</v>
       </c>
@@ -19616,7 +21927,7 @@
         <v>54.732137121713379</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>649</v>
       </c>
@@ -19648,7 +21959,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>172</v>
       </c>
@@ -19680,7 +21991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>250</v>
       </c>
@@ -19712,7 +22023,7 @@
         <v>225.66638246861362</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>578</v>
       </c>
@@ -19744,7 +22055,7 @@
         <v>50925.316176470602</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>740</v>
       </c>
@@ -19776,7 +22087,7 @@
         <v>-1.3988576218932209</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>120</v>
       </c>
@@ -19808,7 +22119,7 @@
         <v>0.35656990181918469</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>138</v>
       </c>
@@ -19840,7 +22151,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>316</v>
       </c>
@@ -19872,7 +22183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>656</v>
       </c>
@@ -19904,7 +22215,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>416</v>
       </c>
@@ -19936,7 +22247,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>690</v>
       </c>
@@ -19962,7 +22273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>31</v>
       </c>
@@ -19973,7 +22284,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>49</v>
       </c>
@@ -19984,7 +22295,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>113</v>
       </c>
@@ -19995,7 +22306,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>127</v>
       </c>
@@ -20006,7 +22317,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>139</v>
       </c>
@@ -20017,7 +22328,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>265</v>
       </c>
@@ -20028,7 +22339,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>265</v>
       </c>
@@ -20036,7 +22347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>303</v>
       </c>
@@ -20044,7 +22355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>590</v>
       </c>
@@ -20052,7 +22363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>957</v>
       </c>
@@ -20060,7 +22371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>972</v>
       </c>
@@ -20068,7 +22379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>75</v>
       </c>
@@ -20076,7 +22387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>189</v>
       </c>
@@ -20084,7 +22395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>273</v>
       </c>
@@ -20092,7 +22403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>277</v>
       </c>
@@ -20100,7 +22411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>466</v>
       </c>
@@ -20108,7 +22419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>702</v>
       </c>
@@ -20116,7 +22427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>762</v>
       </c>
@@ -20124,7 +22435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1252</v>
       </c>
@@ -20132,7 +22443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>176</v>
       </c>
@@ -20140,7 +22451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>272</v>
       </c>
@@ -20148,7 +22459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>613</v>
       </c>
@@ -20156,7 +22467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>638</v>
       </c>
@@ -20164,51 +22475,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
         <v>31</v>
@@ -20231,20 +22542,20 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -20252,7 +22563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>31</v>
       </c>
@@ -20260,7 +22571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>49</v>
       </c>
@@ -20268,7 +22579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>78</v>
       </c>
@@ -20276,7 +22587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>113</v>
       </c>
@@ -20284,7 +22595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>121</v>
       </c>
@@ -20292,7 +22603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>127</v>
       </c>
@@ -20300,7 +22611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>139</v>
       </c>
@@ -20308,7 +22619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>230</v>
       </c>
@@ -20316,7 +22627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>265</v>
       </c>
@@ -20324,7 +22635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>265</v>
       </c>
@@ -20332,7 +22643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>288</v>
       </c>
@@ -20340,7 +22651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>339</v>
       </c>
@@ -20348,7 +22659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>522</v>
       </c>
@@ -20356,7 +22667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>649</v>
       </c>
@@ -20371,7 +22682,7 @@
         <v>-0.94770726468004396</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>172</v>
       </c>
@@ -20379,7 +22690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>250</v>
       </c>
@@ -20387,7 +22698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>303</v>
       </c>
@@ -20395,7 +22706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>578</v>
       </c>
@@ -20406,7 +22717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>590</v>
       </c>
@@ -20414,7 +22725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>740</v>
       </c>
@@ -20426,7 +22737,7 @@
       </c>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>957</v>
       </c>
@@ -20440,7 +22751,7 @@
         <v>0.94770726468004407</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>972</v>
       </c>
@@ -20454,7 +22765,7 @@
         <v>0.89814905952733115</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>75</v>
       </c>
@@ -20468,7 +22779,7 @@
         <v>0.8954687716201557</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>120</v>
       </c>
@@ -20482,7 +22793,7 @@
         <v>94.540494453861925</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>138</v>
       </c>
@@ -20496,7 +22807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>189</v>
       </c>
@@ -20504,7 +22815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>273</v>
       </c>
@@ -20515,7 +22826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>277</v>
       </c>
@@ -20539,7 +22850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>316</v>
       </c>
@@ -20565,7 +22876,7 @@
         <v>1.917034377044117E-20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>466</v>
       </c>
@@ -20585,7 +22896,7 @@
         <v>8937.9050915806965</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>656</v>
       </c>
@@ -20605,7 +22916,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>702</v>
       </c>
@@ -20613,7 +22924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>762</v>
       </c>
@@ -20646,7 +22957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1252</v>
       </c>
@@ -20681,7 +22992,7 @@
         <v>925.41355577816125</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>176</v>
       </c>
@@ -20716,7 +23027,7 @@
         <v>-57.268396838658873</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>272</v>
       </c>
@@ -20724,7 +23035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>416</v>
       </c>
@@ -20732,7 +23043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>613</v>
       </c>
@@ -20747,7 +23058,7 @@
         <v>865.26557308970109</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>638</v>
       </c>
@@ -20768,7 +23079,7 @@
         <v>-64.389119601328915</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>690</v>
       </c>
@@ -20782,7 +23093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="D42" s="34" t="s">
@@ -20808,7 +23119,7 @@
         <v>221.37437707641197</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="D43">
@@ -20827,7 +23138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="D44">
@@ -20846,7 +23157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="D45">
@@ -20865,7 +23176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="5"/>
       <c r="D46">
@@ -20884,7 +23195,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="5"/>
       <c r="D47">
@@ -20903,7 +23214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="5"/>
       <c r="D48">
@@ -20922,7 +23233,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="5"/>
       <c r="D49">
@@ -20941,7 +23252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="D50">
@@ -20960,7 +23271,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D51">
         <v>9</v>
       </c>
@@ -20977,7 +23288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D52">
         <v>10</v>
       </c>
@@ -20994,7 +23305,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D53">
         <v>11</v>
       </c>
@@ -21011,7 +23322,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D54">
         <v>12</v>
       </c>
@@ -21028,7 +23339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D55">
         <v>13</v>
       </c>
@@ -21045,7 +23356,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D56">
         <v>14</v>
       </c>
@@ -21062,7 +23373,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D57">
         <v>15</v>
       </c>
@@ -21079,7 +23390,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D58">
         <v>16</v>
       </c>
@@ -21096,7 +23407,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D59">
         <v>17</v>
       </c>
@@ -21113,7 +23424,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D60">
         <v>18</v>
       </c>
@@ -21130,7 +23441,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D61">
         <v>19</v>
       </c>
@@ -21147,7 +23458,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D62">
         <v>20</v>
       </c>
@@ -21164,7 +23475,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D63">
         <v>21</v>
       </c>
@@ -21181,7 +23492,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D64">
         <v>22</v>
       </c>
@@ -21198,7 +23509,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D65">
         <v>23</v>
       </c>
@@ -21215,7 +23526,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D66">
         <v>24</v>
       </c>
@@ -21232,7 +23543,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>25</v>
       </c>
@@ -21249,7 +23560,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D68">
         <v>26</v>
       </c>
@@ -21266,7 +23577,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>27</v>
       </c>
@@ -21283,7 +23594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D70">
         <v>28</v>
       </c>
@@ -21300,7 +23611,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D71">
         <v>29</v>
       </c>
@@ -21317,7 +23628,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D72">
         <v>30</v>
       </c>
@@ -21334,7 +23645,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D73">
         <v>31</v>
       </c>
@@ -21351,7 +23662,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D74">
         <v>32</v>
       </c>
@@ -21368,7 +23679,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D75">
         <v>33</v>
       </c>
@@ -21385,7 +23696,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D76">
         <v>34</v>
       </c>
@@ -21402,7 +23713,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D77">
         <v>35</v>
       </c>
@@ -21419,7 +23730,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D78">
         <v>36</v>
       </c>
@@ -21436,7 +23747,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D79">
         <v>37</v>
       </c>
@@ -21453,7 +23764,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D80">
         <v>38</v>
       </c>
@@ -21470,7 +23781,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D81">
         <v>39</v>
       </c>
@@ -21487,7 +23798,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="82" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D82" s="33">
         <v>40</v>
       </c>
@@ -21521,15 +23832,15 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -21544,7 +23855,7 @@
       </c>
       <c r="N1" s="38"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>31</v>
       </c>
@@ -21562,7 +23873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>49</v>
       </c>
@@ -21583,7 +23894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>78</v>
       </c>
@@ -21595,7 +23906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>113</v>
       </c>
@@ -21611,7 +23922,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>121</v>
       </c>
@@ -21629,7 +23940,7 @@
         <v>7.2832474801816816E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>127</v>
       </c>
@@ -21647,7 +23958,7 @@
         <v>5.3045693857572815E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>139</v>
       </c>
@@ -21665,7 +23976,7 @@
         <v>-2.0871626156722788E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>230</v>
       </c>
@@ -21683,7 +23994,7 @@
         <v>295.4475609535271</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>265</v>
       </c>
@@ -21701,7 +24012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>265</v>
       </c>
@@ -21713,7 +24024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>288</v>
       </c>
@@ -21728,7 +24039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>339</v>
       </c>
@@ -21756,7 +24067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>522</v>
       </c>
@@ -21786,7 +24097,7 @@
         <v>0.65514921244782298</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>649</v>
       </c>
@@ -21810,7 +24121,7 @@
         <v>87289.261273388096</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>172</v>
       </c>
@@ -21834,7 +24145,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>250</v>
       </c>
@@ -21846,7 +24157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>303</v>
       </c>
@@ -21883,7 +24194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>578</v>
       </c>
@@ -21922,7 +24233,7 @@
         <v>515.82582544723141</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>590</v>
       </c>
@@ -21961,7 +24272,7 @@
         <v>233.84058132375878</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>740</v>
       </c>
@@ -21973,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>957</v>
       </c>
@@ -21985,7 +24296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>972</v>
       </c>
@@ -21997,7 +24308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>75</v>
       </c>
@@ -22009,7 +24320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>120</v>
       </c>
@@ -22021,7 +24332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>138</v>
       </c>
@@ -22033,7 +24344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>189</v>
       </c>
@@ -22045,7 +24356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>273</v>
       </c>
@@ -22057,7 +24368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>277</v>
       </c>
@@ -22069,7 +24380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>316</v>
       </c>
@@ -22081,7 +24392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>466</v>
       </c>
@@ -22093,7 +24404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>656</v>
       </c>
@@ -22105,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>702</v>
       </c>
@@ -22117,7 +24428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>762</v>
       </c>
@@ -22129,7 +24440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1252</v>
       </c>
@@ -22141,7 +24452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>176</v>
       </c>
@@ -22153,7 +24464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>272</v>
       </c>
@@ -22165,7 +24476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>416</v>
       </c>
@@ -22177,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>613</v>
       </c>
@@ -22189,7 +24500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>638</v>
       </c>
@@ -22201,7 +24512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>690</v>
       </c>
@@ -22213,41 +24524,2427 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F66C2C-EDA5-B148-9213-F943D258CB18}">
+  <dimension ref="A1:X84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF($A$2:$A$41,G4)</f>
+        <v>23</v>
+      </c>
+      <c r="I4" s="47">
+        <f>H4/$H$2</f>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF($A$2:$A$41,G5)</f>
+        <v>17</v>
+      </c>
+      <c r="I5" s="47">
+        <f>H5/$H$2</f>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF($B$2:$B$41,G8)</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="47">
+        <f>H8/$H$2</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H11" si="0">COUNTIF($B$2:$B$41,G9)</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" ref="I9:I11" si="1">H9/$H$2</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I10" s="47">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="47">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIF($C$2:$C$41,G14)</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="47">
+        <f>H14/$H$2</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H19" si="2">COUNTIF($C$2:$C$41,G15)</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" ref="I15:I19" si="3">H15/$H$2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="47">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="47">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <f>COUNTIF($D$2:$D$41,G22)</f>
+        <v>16</v>
+      </c>
+      <c r="I22" s="47">
+        <f>H22/$H$2</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <f>COUNTIF($D$2:$D$41,G23)</f>
+        <v>24</v>
+      </c>
+      <c r="I23" s="47">
+        <f>H23/$H$2</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26">
+        <f>COUNTIF($G$45:$G$84,G26)</f>
+        <v>11</v>
+      </c>
+      <c r="I26" s="47">
+        <f>H26/$H$2</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIF($G$45:$G$84,G27)</f>
+        <v>5</v>
+      </c>
+      <c r="I27" s="47">
+        <f>H27/$H$2</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:24" ht="23" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>58</v>
+      </c>
+      <c r="B45" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>169.1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>68</v>
+      </c>
+      <c r="E45" s="2">
+        <v>97</v>
+      </c>
+      <c r="F45" s="4">
+        <v>31</v>
+      </c>
+      <c r="G45" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>66.2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="D46" s="3">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>97</v>
+      </c>
+      <c r="F46" s="4">
+        <v>49</v>
+      </c>
+      <c r="G46" s="4">
+        <v>14</v>
+      </c>
+      <c r="K46" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="X46" s="50"/>
+    </row>
+    <row r="47" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>175.8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2">
+        <v>100</v>
+      </c>
+      <c r="F47" s="4">
+        <v>78</v>
+      </c>
+      <c r="G47" s="4">
+        <v>13</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+    </row>
+    <row r="48" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C48" s="2">
+        <v>152.6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>97</v>
+      </c>
+      <c r="F48" s="4">
+        <v>113</v>
+      </c>
+      <c r="G48" s="4">
+        <v>13</v>
+      </c>
+      <c r="K48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="51">
+        <v>49.85</v>
+      </c>
+      <c r="M48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="51">
+        <v>68.335000000000008</v>
+      </c>
+      <c r="O48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" s="51">
+        <v>172.5500000000001</v>
+      </c>
+      <c r="Q48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="51">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="S48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" s="51">
+        <v>99.275000000000006</v>
+      </c>
+      <c r="U48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="V48" s="51">
+        <v>395.22500000000002</v>
+      </c>
+      <c r="W48" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="X48" s="51">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>135</v>
+      </c>
+      <c r="D49" s="3">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2">
+        <v>101</v>
+      </c>
+      <c r="F49" s="4">
+        <v>121</v>
+      </c>
+      <c r="G49" s="4">
+        <v>12</v>
+      </c>
+      <c r="K49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" s="48">
+        <v>2.2456653402750875</v>
+      </c>
+      <c r="M49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" s="48">
+        <v>0.47743371133378165</v>
+      </c>
+      <c r="O49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="48">
+        <v>4.1626898971081641</v>
+      </c>
+      <c r="Q49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" s="48">
+        <v>1.7862724402423149</v>
+      </c>
+      <c r="S49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="T49" s="48">
+        <v>0.36159812655516493</v>
+      </c>
+      <c r="U49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="V49" s="48">
+        <v>46.234359621556173</v>
+      </c>
+      <c r="W49" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="X49" s="48">
+        <v>0.68049755552604529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>201.5</v>
+      </c>
+      <c r="D50" s="3">
+        <v>88</v>
+      </c>
+      <c r="E50" s="2">
+        <v>99</v>
+      </c>
+      <c r="F50" s="4">
+        <v>127</v>
+      </c>
+      <c r="G50" s="4">
+        <v>12</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="48">
+        <v>49.5</v>
+      </c>
+      <c r="M50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" s="48">
+        <v>68.3</v>
+      </c>
+      <c r="O50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="P50" s="48">
+        <v>169.95</v>
+      </c>
+      <c r="Q50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" s="48">
+        <v>66</v>
+      </c>
+      <c r="S50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50" s="48">
+        <v>99</v>
+      </c>
+      <c r="U50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V50" s="48">
+        <v>282.5</v>
+      </c>
+      <c r="W50" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="X50" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>54</v>
+      </c>
+      <c r="B51" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C51" s="2">
+        <v>139</v>
+      </c>
+      <c r="D51" s="3">
+        <v>60</v>
+      </c>
+      <c r="E51" s="2">
+        <v>99</v>
+      </c>
+      <c r="F51" s="4">
+        <v>139</v>
+      </c>
+      <c r="G51" s="4">
+        <v>11</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51" s="48">
+        <v>68</v>
+      </c>
+      <c r="M51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" s="48">
+        <v>68.3</v>
+      </c>
+      <c r="O51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="P51" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="R51" s="48">
+        <v>64</v>
+      </c>
+      <c r="S51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="T51" s="48">
+        <v>101</v>
+      </c>
+      <c r="U51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" s="48">
+        <v>265</v>
+      </c>
+      <c r="W51" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="X51" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>65</v>
+      </c>
+      <c r="B52" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C52" s="2">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="D52" s="3">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>100</v>
+      </c>
+      <c r="F52" s="4">
+        <v>230</v>
+      </c>
+      <c r="G52" s="4">
+        <v>9</v>
+      </c>
+      <c r="K52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="51">
+        <v>14.202834675532662</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N52" s="51">
+        <v>3.0195559191241932</v>
+      </c>
+      <c r="O52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P52" s="51">
+        <v>26.327162535667515</v>
+      </c>
+      <c r="Q52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="51">
+        <v>11.297378865505458</v>
+      </c>
+      <c r="S52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="T52" s="51">
+        <v>2.2869473551282731</v>
+      </c>
+      <c r="U52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="V52" s="51">
+        <v>292.41176512687611</v>
+      </c>
+      <c r="W52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="X52" s="51">
+        <v>4.3038444352784087</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2">
+        <v>237.1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>96</v>
+      </c>
+      <c r="F53" s="4">
+        <v>265</v>
+      </c>
+      <c r="G53" s="4">
+        <v>9</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="48">
+        <v>201.72051282051297</v>
+      </c>
+      <c r="M53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N53" s="48">
+        <v>9.1177179487179512</v>
+      </c>
+      <c r="O53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P53" s="48">
+        <v>693.11948717945518</v>
+      </c>
+      <c r="Q53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53" s="48">
+        <v>127.63076923076937</v>
+      </c>
+      <c r="S53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" s="48">
+        <v>5.2301282051282039</v>
+      </c>
+      <c r="U53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="V53" s="48">
+        <v>85504.64038461537</v>
+      </c>
+      <c r="W53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="X53" s="48">
+        <v>18.523076923076925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>61.3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>176.7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>84</v>
+      </c>
+      <c r="E54" s="2">
+        <v>98</v>
+      </c>
+      <c r="F54" s="4">
+        <v>265</v>
+      </c>
+      <c r="G54" s="4">
+        <v>8</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="48">
+        <v>-0.62992781792904484</v>
+      </c>
+      <c r="M54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" s="48">
+        <v>0.50555863073135576</v>
+      </c>
+      <c r="O54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="48">
+        <v>-0.16641631736650631</v>
+      </c>
+      <c r="Q54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="R54" s="48">
+        <v>-0.6395175820074841</v>
+      </c>
+      <c r="S54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" s="48">
+        <v>-1.1872729824270762</v>
+      </c>
+      <c r="U54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="V54" s="48">
+        <v>0.47143125149810761</v>
+      </c>
+      <c r="W54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="X54" s="48">
+        <v>-1.1479706940548411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>44</v>
+      </c>
+      <c r="B55" s="2">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C55" s="2">
+        <v>164.2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2">
+        <v>98</v>
+      </c>
+      <c r="F55" s="4">
+        <v>288</v>
+      </c>
+      <c r="G55" s="4">
+        <v>8</v>
+      </c>
+      <c r="K55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="48">
+        <v>-2.079796525781499E-2</v>
+      </c>
+      <c r="M55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" s="48">
+        <v>4.5652331555308429E-2</v>
+      </c>
+      <c r="O55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" s="48">
+        <v>0.37037477969411386</v>
+      </c>
+      <c r="Q55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="R55" s="48">
+        <v>0.68002365789764041</v>
+      </c>
+      <c r="S55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" s="48">
+        <v>9.001061157007044E-2</v>
+      </c>
+      <c r="U55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="V55" s="48">
+        <v>0.96657635197114089</v>
+      </c>
+      <c r="W55" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="X55" s="48">
+        <v>-0.13923148100207461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>66</v>
+      </c>
+      <c r="B56" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>144.1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>101</v>
+      </c>
+      <c r="F56" s="4">
+        <v>339</v>
+      </c>
+      <c r="G56" s="4">
+        <v>7</v>
+      </c>
+      <c r="K56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" s="48">
+        <v>57</v>
+      </c>
+      <c r="M56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N56" s="48">
+        <v>14.900000000000006</v>
+      </c>
+      <c r="O56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" s="48">
+        <v>117.6</v>
+      </c>
+      <c r="Q56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="R56" s="48">
+        <v>40</v>
+      </c>
+      <c r="S56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="T56" s="48">
+        <v>7</v>
+      </c>
+      <c r="U56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="V56" s="48">
+        <v>1221</v>
+      </c>
+      <c r="W56" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="X56" s="48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>172.9</v>
+      </c>
+      <c r="D57" s="3">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2">
+        <v>99</v>
+      </c>
+      <c r="F57" s="4">
+        <v>522</v>
+      </c>
+      <c r="G57" s="4">
+        <v>6</v>
+      </c>
+      <c r="K57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L57" s="51">
+        <v>20</v>
+      </c>
+      <c r="M57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N57" s="51">
+        <v>61.3</v>
+      </c>
+      <c r="O57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="P57" s="51">
+        <v>119.5</v>
+      </c>
+      <c r="Q57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R57" s="51">
+        <v>56</v>
+      </c>
+      <c r="S57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="T57" s="51">
+        <v>96</v>
+      </c>
+      <c r="U57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="V57" s="51">
+        <v>31</v>
+      </c>
+      <c r="W57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="X57" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>73</v>
+      </c>
+      <c r="B58" s="2">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2">
+        <v>198</v>
+      </c>
+      <c r="D58" s="3">
+        <v>84</v>
+      </c>
+      <c r="E58" s="2">
+        <v>98</v>
+      </c>
+      <c r="F58" s="4">
+        <v>649</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2</v>
+      </c>
+      <c r="K58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="51">
+        <v>77</v>
+      </c>
+      <c r="M58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="N58" s="51">
+        <v>76.2</v>
+      </c>
+      <c r="O58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" s="51">
+        <v>237.1</v>
+      </c>
+      <c r="Q58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="R58" s="51">
+        <v>96</v>
+      </c>
+      <c r="S58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" s="51">
+        <v>103</v>
+      </c>
+      <c r="U58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="V58" s="51">
+        <v>1252</v>
+      </c>
+      <c r="W58" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="X58" s="51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>35</v>
+      </c>
+      <c r="B59" s="2">
+        <v>63</v>
+      </c>
+      <c r="C59" s="2">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="D59" s="3">
+        <v>96</v>
+      </c>
+      <c r="E59" s="2">
+        <v>96</v>
+      </c>
+      <c r="F59" s="4">
+        <v>172</v>
+      </c>
+      <c r="G59" s="4">
+        <v>11</v>
+      </c>
+      <c r="K59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L59" s="48">
+        <v>1994</v>
+      </c>
+      <c r="M59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="N59" s="48">
+        <v>2733.4</v>
+      </c>
+      <c r="O59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" s="48">
+        <v>6902.0000000000036</v>
+      </c>
+      <c r="Q59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" s="48">
+        <v>2776</v>
+      </c>
+      <c r="S59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="T59" s="48">
+        <v>3971</v>
+      </c>
+      <c r="U59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="V59" s="48">
+        <v>15809</v>
+      </c>
+      <c r="W59" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="X59" s="48">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>77</v>
+      </c>
+      <c r="B60" s="2">
+        <v>68</v>
+      </c>
+      <c r="C60" s="2">
+        <v>209.4</v>
+      </c>
+      <c r="D60" s="3">
+        <v>60</v>
+      </c>
+      <c r="E60" s="2">
+        <v>97</v>
+      </c>
+      <c r="F60" s="4">
+        <v>250</v>
+      </c>
+      <c r="G60" s="4">
+        <v>9</v>
+      </c>
+      <c r="K60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60" s="49">
+        <v>40</v>
+      </c>
+      <c r="M60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N60" s="49">
+        <v>40</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" s="49">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="R60" s="49">
+        <v>40</v>
+      </c>
+      <c r="S60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" s="49">
+        <v>40</v>
+      </c>
+      <c r="U60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="V60" s="49">
+        <v>40</v>
+      </c>
+      <c r="W60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="X60" s="49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>29</v>
+      </c>
+      <c r="B61" s="2">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2">
+        <v>162.4</v>
+      </c>
+      <c r="D61" s="3">
+        <v>56</v>
+      </c>
+      <c r="E61" s="2">
+        <v>96</v>
+      </c>
+      <c r="F61" s="4">
+        <v>303</v>
+      </c>
+      <c r="G61" s="4">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>68</v>
+      </c>
+      <c r="B62" s="2">
+        <v>68</v>
+      </c>
+      <c r="C62" s="2">
+        <v>161.9</v>
+      </c>
+      <c r="D62" s="3">
+        <v>60</v>
+      </c>
+      <c r="E62" s="2">
+        <v>99</v>
+      </c>
+      <c r="F62" s="4">
+        <v>578</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>68</v>
+      </c>
+      <c r="B63" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C63" s="2">
+        <v>174.8</v>
+      </c>
+      <c r="D63" s="3">
+        <v>56</v>
+      </c>
+      <c r="E63" s="2">
+        <v>100</v>
+      </c>
+      <c r="F63" s="4">
+        <v>590</v>
+      </c>
+      <c r="G63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2">
+        <v>63.7</v>
+      </c>
+      <c r="C64" s="2">
+        <v>119.5</v>
+      </c>
+      <c r="D64" s="3">
+        <v>56</v>
+      </c>
+      <c r="E64" s="2">
+        <v>102</v>
+      </c>
+      <c r="F64" s="4">
+        <v>740</v>
+      </c>
+      <c r="G64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>48</v>
+      </c>
+      <c r="B65" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C65" s="2">
+        <v>164.7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>60</v>
+      </c>
+      <c r="E65" s="2">
+        <v>103</v>
+      </c>
+      <c r="F65" s="4">
+        <v>957</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>44</v>
+      </c>
+      <c r="B66" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="C66" s="2">
+        <v>170.1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>99</v>
+      </c>
+      <c r="F66" s="4">
+        <v>972</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>32</v>
+      </c>
+      <c r="B67" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="C67" s="2">
+        <v>179.3</v>
+      </c>
+      <c r="D67" s="3">
+        <v>88</v>
+      </c>
+      <c r="E67" s="2">
+        <v>96</v>
+      </c>
+      <c r="F67" s="4">
+        <v>75</v>
+      </c>
+      <c r="G67" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>46</v>
+      </c>
+      <c r="B68" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>166.8</v>
+      </c>
+      <c r="D68" s="3">
+        <v>72</v>
+      </c>
+      <c r="E68" s="2">
+        <v>103</v>
+      </c>
+      <c r="F68" s="4">
+        <v>120</v>
+      </c>
+      <c r="G68" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>20</v>
+      </c>
+      <c r="B69" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="C69" s="2">
+        <v>175.2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2">
+        <v>102</v>
+      </c>
+      <c r="F69" s="4">
+        <v>138</v>
+      </c>
+      <c r="G69" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>52</v>
+      </c>
+      <c r="B70" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="C70" s="2">
+        <v>191.1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>56</v>
+      </c>
+      <c r="E70" s="2">
+        <v>102</v>
+      </c>
+      <c r="F70" s="4">
+        <v>189</v>
+      </c>
+      <c r="G70" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>62</v>
+      </c>
+      <c r="B71" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>166.1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>84</v>
+      </c>
+      <c r="E71" s="2">
+        <v>96</v>
+      </c>
+      <c r="F71" s="4">
+        <v>273</v>
+      </c>
+      <c r="G71" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>42</v>
+      </c>
+      <c r="B72" s="2">
+        <v>69.7</v>
+      </c>
+      <c r="C72" s="2">
+        <v>137.4</v>
+      </c>
+      <c r="D72" s="3">
+        <v>88</v>
+      </c>
+      <c r="E72" s="2">
+        <v>101</v>
+      </c>
+      <c r="F72" s="4">
+        <v>277</v>
+      </c>
+      <c r="G72" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>48</v>
+      </c>
+      <c r="B73" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="C73" s="2">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="D73" s="3">
+        <v>68</v>
+      </c>
+      <c r="E73" s="2">
+        <v>101</v>
+      </c>
+      <c r="F73" s="4">
+        <v>316</v>
+      </c>
+      <c r="G73" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>55</v>
+      </c>
+      <c r="B74" s="2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C74" s="2">
+        <v>193.8</v>
+      </c>
+      <c r="D74" s="3">
+        <v>68</v>
+      </c>
+      <c r="E74" s="2">
+        <v>99</v>
+      </c>
+      <c r="F74" s="4">
+        <v>466</v>
+      </c>
+      <c r="G74" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>66</v>
+      </c>
+      <c r="B75" s="2">
+        <v>68</v>
+      </c>
+      <c r="C75" s="2">
+        <v>173.3</v>
+      </c>
+      <c r="D75" s="3">
+        <v>88</v>
+      </c>
+      <c r="E75" s="2">
+        <v>101</v>
+      </c>
+      <c r="F75" s="4">
+        <v>656</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>36</v>
+      </c>
+      <c r="B76" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="C76" s="2">
+        <v>137.1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>102</v>
+      </c>
+      <c r="F76" s="4">
+        <v>702</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>42</v>
+      </c>
+      <c r="B77" s="2">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C77" s="2">
+        <v>189.1</v>
+      </c>
+      <c r="D77" s="3">
+        <v>56</v>
+      </c>
+      <c r="E77" s="2">
+        <v>101</v>
+      </c>
+      <c r="F77" s="4">
+        <v>762</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>60</v>
+      </c>
+      <c r="B78" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>151</v>
+      </c>
+      <c r="D78" s="3">
+        <v>72</v>
+      </c>
+      <c r="E78" s="2">
+        <v>103</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1252</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>73</v>
+      </c>
+      <c r="B79" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="C79" s="2">
+        <v>186.6</v>
+      </c>
+      <c r="D79" s="3">
+        <v>72</v>
+      </c>
+      <c r="E79" s="2">
+        <v>98</v>
+      </c>
+      <c r="F79" s="4">
+        <v>176</v>
+      </c>
+      <c r="G79" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>52</v>
+      </c>
+      <c r="B80" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="C80" s="2">
+        <v>220.6</v>
+      </c>
+      <c r="D80" s="3">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2">
+        <v>100</v>
+      </c>
+      <c r="F80" s="4">
+        <v>272</v>
+      </c>
+      <c r="G80" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>33</v>
+      </c>
+      <c r="B81" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="C81" s="2">
+        <v>204.6</v>
+      </c>
+      <c r="D81" s="3">
+        <v>60</v>
+      </c>
+      <c r="E81" s="2">
+        <v>103</v>
+      </c>
+      <c r="F81" s="4">
+        <v>416</v>
+      </c>
+      <c r="G81" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>37</v>
+      </c>
+      <c r="B82" s="2">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C82" s="2">
+        <v>169.8</v>
+      </c>
+      <c r="D82" s="3">
+        <v>84</v>
+      </c>
+      <c r="E82" s="2">
+        <v>98</v>
+      </c>
+      <c r="F82" s="4">
+        <v>613</v>
+      </c>
+      <c r="G82" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>40</v>
+      </c>
+      <c r="B83" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="C83" s="2">
+        <v>213.3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>72</v>
+      </c>
+      <c r="E83" s="2">
+        <v>96</v>
+      </c>
+      <c r="F83" s="4">
+        <v>638</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>53</v>
+      </c>
+      <c r="B84" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="C84" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="D84" s="3">
+        <v>56</v>
+      </c>
+      <c r="E84" s="2">
+        <v>97</v>
+      </c>
+      <c r="F84" s="4">
+        <v>690</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
